--- a/test_knn.xlsx
+++ b/test_knn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1252747252747253</v>
+        <v>0.01754385964912281</v>
       </c>
     </row>
     <row r="3">
@@ -453,199 +453,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1340659340659341</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1318681318681319</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.1340659340659341</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.1274725274725275</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.1274725274725275</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.1274725274725275</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.1318681318681319</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.1318681318681319</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.1296703296703297</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.1296703296703297</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.1296703296703297</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.1296703296703297</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.1296703296703297</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.1296703296703297</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.1296703296703297</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.1296703296703297</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.1296703296703297</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.1296703296703297</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.1296703296703297</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.1318681318681319</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.1318681318681319</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.1318681318681319</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.1318681318681319</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.1318681318681319</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.1318681318681319</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
